--- a/results/CNN Models/full_dataset/MobileNetV2/result_for_MobileNetV2.xlsx
+++ b/results/CNN Models/full_dataset/MobileNetV2/result_for_MobileNetV2.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0.9769230769230769</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.9883268482490273</v>
       </c>
       <c r="E2" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9530201342281879</v>
+        <v>0.9505494505494505</v>
       </c>
       <c r="C3" t="n">
-        <v>0.83203125</v>
+        <v>0.9885714285714285</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8884254431699687</v>
+        <v>0.969187675070028</v>
       </c>
       <c r="E3" t="n">
-        <v>512</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5</v>
+        <v>0.8372093023255814</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9863013698630136</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="E4" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9813218390804598</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9985380116959064</v>
+        <v>0.9912408759124087</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9898550724637681</v>
+        <v>0.9956011730205279</v>
       </c>
       <c r="E5" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6101694915254238</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="E6" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9390243902439024</v>
+        <v>0.9207920792079208</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9409368635437881</v>
+        <v>0.9748427672955975</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9399796541200407</v>
+        <v>0.9470468431771895</v>
       </c>
       <c r="E7" t="n">
-        <v>491</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.967741935483871</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9375</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="E8" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7073170731707317</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6170212765957447</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6590909090909091</v>
+        <v>0.8764044943820225</v>
       </c>
       <c r="E9" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -614,16 +614,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9294117647058824</v>
+        <v>0.9340659340659341</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.9770114942528736</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9634146341463414</v>
+        <v>0.9550561797752809</v>
       </c>
       <c r="E10" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -633,16 +633,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8892215568862275</v>
+        <v>0.9628482972136223</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8786982248520711</v>
+        <v>0.9228486646884273</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8839285714285714</v>
+        <v>0.9424242424242424</v>
       </c>
       <c r="E11" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12">
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.92281238058846</v>
+        <v>0.9589322381930184</v>
       </c>
       <c r="C12" t="n">
-        <v>0.92281238058846</v>
+        <v>0.9589322381930184</v>
       </c>
       <c r="D12" t="n">
-        <v>0.92281238058846</v>
+        <v>0.9589322381930184</v>
       </c>
       <c r="E12" t="n">
-        <v>0.92281238058846</v>
+        <v>0.9589322381930184</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8767058693799262</v>
+        <v>0.9489364884471632</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8666264088225972</v>
+        <v>0.9010071258968843</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8553911394992643</v>
+        <v>0.9170827167406855</v>
       </c>
       <c r="E13" t="n">
-        <v>2617</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9352155010127661</v>
+        <v>0.9608334343901438</v>
       </c>
       <c r="C14" t="n">
-        <v>0.92281238058846</v>
+        <v>0.9589322381930184</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9245490157458676</v>
+        <v>0.9576500960595148</v>
       </c>
       <c r="E14" t="n">
-        <v>2617</v>
+        <v>2435</v>
       </c>
     </row>
   </sheetData>
